--- a/MaskImportExport-China(2019-2020).xlsx
+++ b/MaskImportExport-China(2019-2020).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haklaekim/Google Drive/01.글쓰기/2020/공적마스크/data/데이터/수출입/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haklaekim/Documents/GitHub/public-mask-supply-in-korea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63FB5C16-E8D6-4D41-A42F-5C8483CD4762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D22B5-1BFE-7848-9650-4054CF698A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="57600" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t/>
   </si>
@@ -329,9 +329,6 @@
     <t>Year/Month</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Item Code</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
   </si>
   <si>
     <t>Trade Balance</t>
-  </si>
-  <si>
-    <t>Etc</t>
   </si>
   <si>
     <t>China</t>
@@ -732,18 +726,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="23.5" customWidth="1"/>
+    <col min="1" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -754,13 +748,13 @@
         <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>104</v>
@@ -768,11 +762,8 @@
       <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -783,456 +774,408 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
